--- a/ofc/estimates/sana gaun dhal byabasthapan/V-sanagaun dhal byabasthapan.xlsx
+++ b/ofc/estimates/sana gaun dhal byabasthapan/V-sanagaun dhal byabasthapan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate (3)" sheetId="19" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Detail Valuated Sheet</t>
+  </si>
+  <si>
+    <t>Total Valuated</t>
   </si>
 </sst>
 </file>
@@ -553,43 +556,25 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,20 +587,38 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -1254,116 +1257,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="O6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2113,11 +2116,11 @@
       <c r="B38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="78">
+      <c r="C38" s="72">
         <f>J36</f>
         <v>447610.12228750001</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="39">
         <v>100</v>
       </c>
@@ -2133,10 +2136,10 @@
       <c r="B39" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="81">
+      <c r="C39" s="75">
         <v>400000</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="39"/>
       <c r="F39" s="49"/>
       <c r="G39" s="48"/>
@@ -2150,11 +2153,11 @@
       <c r="B40" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="75">
         <f>C39-C42-C43</f>
         <v>380000</v>
       </c>
-      <c r="D40" s="81"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="39">
         <f>C40/C38*100</f>
         <v>84.895309797289613</v>
@@ -2171,11 +2174,11 @@
       <c r="B41" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="78">
+      <c r="C41" s="72">
         <f>C38-C40</f>
         <v>67610.122287500009</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="39">
         <f>100-E40</f>
         <v>15.104690202710387</v>
@@ -2192,11 +2195,11 @@
       <c r="B42" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="78">
+      <c r="C42" s="72">
         <f>C39*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D42" s="78"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="39">
         <v>3</v>
       </c>
@@ -2212,11 +2215,11 @@
       <c r="B43" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="78">
+      <c r="C43" s="72">
         <f>C39*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="39">
         <v>2</v>
       </c>
@@ -2244,6 +2247,1732 @@
     <row r="46" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="76">
+        <f>F29</f>
+        <v>447610.12228750001</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="76">
+        <f>I29</f>
+        <v>370362.78828660626</v>
+      </c>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="I7" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="str">
+        <f>'Estimate (3)'!A6:F6</f>
+        <v xml:space="preserve">Project:- सानागाउँ ढल व्यबस्थापन </v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="I8" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="str">
+        <f>'Estimate (3)'!A7:F7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="I9" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <f>'Estimate (3)'!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>'Estimate (3)'!B9</f>
+        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer. (खन्ने पुर्ने कार्य)</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>'Estimate (3)'!H11</f>
+        <v>m3</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'Estimate (3)'!G11</f>
+        <v>28.359375</v>
+      </c>
+      <c r="E13" s="12">
+        <f>'Estimate (3)'!I11</f>
+        <v>64.63</v>
+      </c>
+      <c r="F13" s="12">
+        <f>D13*E13</f>
+        <v>1832.86640625</v>
+      </c>
+      <c r="G13" s="12">
+        <f>V!G11</f>
+        <v>9.375</v>
+      </c>
+      <c r="H13" s="12">
+        <f>V!I11</f>
+        <v>64.63</v>
+      </c>
+      <c r="I13" s="12">
+        <f>G13*H13</f>
+        <v>605.90625</v>
+      </c>
+      <c r="J13" s="28">
+        <f>I13-F13</f>
+        <v>-1226.96015625</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="65" t="str">
+        <f>'Estimate (3)'!B12</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <f>'Estimate (3)'!J12</f>
+        <v>197.48523437500003</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <f>V!J12</f>
+        <v>65.284374999999997</v>
+      </c>
+      <c r="J14" s="28">
+        <f>I14-F14</f>
+        <v>-132.20085937500005</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <f>'Estimate (3)'!A14</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="str">
+        <f>'Estimate (3)'!B14</f>
+        <v>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>'Estimate (3)'!H16</f>
+        <v>m3</v>
+      </c>
+      <c r="D16" s="12">
+        <f>'Estimate (3)'!G16</f>
+        <v>11.25</v>
+      </c>
+      <c r="E16" s="12">
+        <f>'Estimate (3)'!I16</f>
+        <v>404.28</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>4548.1499999999996</v>
+      </c>
+      <c r="G16" s="12">
+        <f>V!G20</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H16" s="12">
+        <f>V!I16</f>
+        <v>404.28</v>
+      </c>
+      <c r="I16" s="12">
+        <f>G16*H16</f>
+        <v>1201.2882627247791</v>
+      </c>
+      <c r="J16" s="28">
+        <f>I16-F16</f>
+        <v>-3346.8617372752205</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <f>'Estimate (3)'!A18</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="32" t="str">
+        <f>'Estimate (3)'!B18</f>
+        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f>'Estimate (3)'!H20</f>
+        <v>m3</v>
+      </c>
+      <c r="D18" s="12">
+        <f>'Estimate (3)'!G20</f>
+        <v>3.09375</v>
+      </c>
+      <c r="E18" s="12">
+        <f>'Estimate (3)'!I20</f>
+        <v>4561.53</v>
+      </c>
+      <c r="F18" s="12">
+        <f>D18*E18</f>
+        <v>14112.233437499999</v>
+      </c>
+      <c r="G18" s="12">
+        <f>V!G20</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H18" s="12">
+        <f>V!I20</f>
+        <v>4561.53</v>
+      </c>
+      <c r="I18" s="12">
+        <f>G18*H18</f>
+        <v>13554.250640810729</v>
+      </c>
+      <c r="J18" s="28">
+        <f>I18-F18</f>
+        <v>-557.98279668926989</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="65" t="str">
+        <f>'Estimate (3)'!B21</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <f>'Estimate (3)'!J21</f>
+        <v>1242.9685125000001</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <f>V!J21</f>
+        <v>1193.8228510515087</v>
+      </c>
+      <c r="J19" s="28">
+        <f>I19-F19</f>
+        <v>-49.14566144849141</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <f>'Estimate (3)'!A23</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="32" t="str">
+        <f>'Estimate (3)'!B23</f>
+        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>'Estimate (3)'!H26</f>
+        <v>m3</v>
+      </c>
+      <c r="D21" s="12">
+        <f>'Estimate (3)'!G26</f>
+        <v>1.921875</v>
+      </c>
+      <c r="E21" s="12">
+        <f>'Estimate (3)'!I26</f>
+        <v>10634.5</v>
+      </c>
+      <c r="F21" s="12">
+        <f>D21*E21</f>
+        <v>20438.1796875</v>
+      </c>
+      <c r="G21" s="12">
+        <f>V!G26</f>
+        <v>1.8232131971959769</v>
+      </c>
+      <c r="H21" s="12">
+        <f>V!I26</f>
+        <v>10634.5</v>
+      </c>
+      <c r="I21" s="12">
+        <f>G21*H21</f>
+        <v>19388.960745580614</v>
+      </c>
+      <c r="J21" s="28">
+        <f>I21-F21</f>
+        <v>-1049.2189419193855</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="65" t="str">
+        <f>'Estimate (3)'!B27</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <f>'Estimate (3)'!J27</f>
+        <v>2016.1158062500001</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <f>V!J27</f>
+        <v>1912.616036438586</v>
+      </c>
+      <c r="J22" s="28">
+        <f>I22-F22</f>
+        <v>-103.49976981141413</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <f>'Estimate (3)'!A29</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="32" t="str">
+        <f>'Estimate (3)'!B29</f>
+        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>'Estimate (3)'!H31</f>
+        <v>m3</v>
+      </c>
+      <c r="D24" s="12">
+        <f>'Estimate (3)'!G31</f>
+        <v>38.671875</v>
+      </c>
+      <c r="E24" s="12">
+        <f>'Estimate (3)'!I31</f>
+        <v>9709.43</v>
+      </c>
+      <c r="F24" s="12">
+        <f>D24*E24</f>
+        <v>375481.86328125</v>
+      </c>
+      <c r="G24" s="12">
+        <f>V!G31</f>
+        <v>31.875</v>
+      </c>
+      <c r="H24" s="12">
+        <f>V!I31</f>
+        <v>9709.43</v>
+      </c>
+      <c r="I24" s="12">
+        <f>G24*H24</f>
+        <v>309488.08124999999</v>
+      </c>
+      <c r="J24" s="28">
+        <f>I24-F24</f>
+        <v>-65993.782031250012</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="65" t="str">
+        <f>'Estimate (3)'!B32</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <f>'Estimate (3)'!J32</f>
+        <v>27240.259921875</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
+        <f>V!J32</f>
+        <v>22452.577874999999</v>
+      </c>
+      <c r="J25" s="28">
+        <f>I25-F25</f>
+        <v>-4787.6820468750011</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
+        <f>'Estimate (3)'!A34</f>
+        <v>6</v>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>'Estimate (3)'!B34</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <f>'Estimate (3)'!H34</f>
+        <v>no.</v>
+      </c>
+      <c r="D27" s="12">
+        <f>'Estimate (3)'!G34</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <f>'Estimate (3)'!I34</f>
+        <v>500</v>
+      </c>
+      <c r="F27" s="12">
+        <f>D27*E27</f>
+        <v>500</v>
+      </c>
+      <c r="G27" s="12">
+        <f>V!G34</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <f>V!I34</f>
+        <v>500</v>
+      </c>
+      <c r="I27" s="12">
+        <f>G27*H27</f>
+        <v>500</v>
+      </c>
+      <c r="J27" s="28">
+        <f>I27-F27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <f>SUM(F13:F27)</f>
+        <v>447610.12228750001</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <f>SUM(I13:I27)</f>
+        <v>370362.78828660626</v>
+      </c>
+      <c r="J29" s="13">
+        <f>I29-F29</f>
+        <v>-77247.334000893752</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="38">
+        <f>D30</f>
+        <v>15</v>
+      </c>
+      <c r="E10" s="38">
+        <f>F30/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39">
+        <f>PRODUCT(C10:F10)</f>
+        <v>9.375</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23">
+        <f>SUM(G10:G10)</f>
+        <v>9.375</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J11" s="41">
+        <f>G11*I11</f>
+        <v>605.90625</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="41">
+        <f>0.13*G11*19284/360</f>
+        <v>65.284374999999997</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>2</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="38">
+        <f>D19</f>
+        <v>15</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="39">
+        <f>PRODUCT(C15:F15)</f>
+        <v>11.25</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23">
+        <f>SUM(G15:G15)</f>
+        <v>11.25</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="23">
+        <v>404.28</v>
+      </c>
+      <c r="J16" s="41">
+        <f>G16*I16</f>
+        <v>4548.1499999999996</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="38">
+        <f>D24</f>
+        <v>15</v>
+      </c>
+      <c r="E19" s="38">
+        <f>E24</f>
+        <v>1.3206339530630906</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G19" s="39">
+        <f>PRODUCT(C19:F19)</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="33">
+        <f>SUM(G19:G19)</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="33">
+        <v>4561.53</v>
+      </c>
+      <c r="J20" s="44">
+        <f>G20*I20</f>
+        <v>13554.250640810729</v>
+      </c>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="45">
+        <f>0.13*G20*(15452.6/5)</f>
+        <v>1193.8228510515087</v>
+      </c>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>4</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="38">
+        <f>D30</f>
+        <v>15</v>
+      </c>
+      <c r="E24" s="38">
+        <f>4.333/3.281</f>
+        <v>1.3206339530630906</v>
+      </c>
+      <c r="F24" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G24" s="39">
+        <f>PRODUCT(C24:F24)</f>
+        <v>1.4857131971959769</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="36">
+        <v>1</v>
+      </c>
+      <c r="D25" s="38">
+        <f>D24</f>
+        <v>15</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="39">
+        <f>PRODUCT(C25:F25)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="33">
+        <f>SUM(G24:G25)</f>
+        <v>1.8232131971959769</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J26" s="44">
+        <f>G26*I26</f>
+        <v>19388.960745580614</v>
+      </c>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="45">
+        <f>0.13*G26*((114907.3+6135.3)/15)</f>
+        <v>1912.616036438586</v>
+      </c>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
+        <v>5</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1</v>
+      </c>
+      <c r="D30" s="38">
+        <v>15</v>
+      </c>
+      <c r="E30" s="38">
+        <f>((F30/2+0.45)/2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="F30" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="G30" s="39">
+        <f>PRODUCT(C30:F30)</f>
+        <v>31.875</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="33">
+        <f>SUM(G30:G30)</f>
+        <v>31.875</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J31" s="44">
+        <f>G31*I31</f>
+        <v>309488.08124999999</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45">
+        <f>0.13*G31*((27092.1)/5)</f>
+        <v>22452.577874999999</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="M32">
+        <f>8.5/3.281</f>
+        <v>2.5906735751295336</v>
+      </c>
+      <c r="N32">
+        <f>8.5-0.17</f>
+        <v>8.33</v>
+      </c>
+      <c r="O32">
+        <f>8.33/3.281</f>
+        <v>2.5388601036269427</v>
+      </c>
+      <c r="P32">
+        <f>8.333/3.281</f>
+        <v>2.5397744590064004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>6</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="34">
+        <f t="shared" ref="G34" si="0">PRODUCT(C34:F34)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="23">
+        <v>500</v>
+      </c>
+      <c r="J34" s="34">
+        <f>G34*I34</f>
+        <v>500</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41">
+        <f>SUM(J10:J34)</f>
+        <v>373709.65002388146</v>
+      </c>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="72">
+        <f>J36</f>
+        <v>373709.65002388146</v>
+      </c>
+      <c r="D38" s="72"/>
+      <c r="E38" s="39">
+        <v>100</v>
+      </c>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="55"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="56"/>
+      <c r="B39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="75">
+        <v>400000</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="49"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="56"/>
+      <c r="B40" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="75">
+        <f>C39-C42-C43</f>
+        <v>380000</v>
+      </c>
+      <c r="D40" s="75"/>
+      <c r="E40" s="39">
+        <f>C40/C38*100</f>
+        <v>101.68321850284481</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="72">
+        <f>C38-C40</f>
+        <v>-6290.3499761185376</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="39">
+        <f>100-E40</f>
+        <v>-1.6832185028448094</v>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="49"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="56"/>
+      <c r="B42" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="72">
+        <f>C39*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D42" s="72"/>
+      <c r="E42" s="39">
+        <v>3</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="49"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="72">
+        <f>C39*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="E43" s="39">
+        <v>2</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="44" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+    </row>
+    <row r="45" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2320,1725 +4049,4 @@
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="72">
-        <f>F29</f>
-        <v>447610.12228750001</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="72">
-        <f>I29</f>
-        <v>367655.87135750003</v>
-      </c>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="I7" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="str">
-        <f>'Estimate (3)'!A6:F6</f>
-        <v xml:space="preserve">Project:- सानागाउँ ढल व्यबस्थापन </v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="I8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="str">
-        <f>'Estimate (3)'!A7:F7</f>
-        <v>Location:- Shankharapur Municipality 9</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="I9" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
-        <f>'Estimate (3)'!A9</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="32" t="str">
-        <f>'Estimate (3)'!B9</f>
-        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer. (खन्ने पुर्ने कार्य)</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>'Estimate (3)'!H11</f>
-        <v>m3</v>
-      </c>
-      <c r="D13" s="12">
-        <f>'Estimate (3)'!G11</f>
-        <v>28.359375</v>
-      </c>
-      <c r="E13" s="12">
-        <f>'Estimate (3)'!I11</f>
-        <v>64.63</v>
-      </c>
-      <c r="F13" s="12">
-        <f>D13*E13</f>
-        <v>1832.86640625</v>
-      </c>
-      <c r="G13" s="12">
-        <f>V!G11</f>
-        <v>14.0625</v>
-      </c>
-      <c r="H13" s="12">
-        <f>V!I11</f>
-        <v>64.63</v>
-      </c>
-      <c r="I13" s="12">
-        <f>G13*H13</f>
-        <v>908.85937499999989</v>
-      </c>
-      <c r="J13" s="28">
-        <f>I13-F13</f>
-        <v>-924.00703125000007</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="86" t="str">
-        <f>'Estimate (3)'!B12</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <f>'Estimate (3)'!J12</f>
-        <v>197.48523437500003</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
-        <f>V!J12</f>
-        <v>97.926562500000003</v>
-      </c>
-      <c r="J14" s="28">
-        <f>I14-F14</f>
-        <v>-99.55867187500003</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
-        <f>'Estimate (3)'!A14</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="str">
-        <f>'Estimate (3)'!B14</f>
-        <v>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</v>
-      </c>
-      <c r="C16" s="12" t="str">
-        <f>'Estimate (3)'!H16</f>
-        <v>m3</v>
-      </c>
-      <c r="D16" s="12">
-        <f>'Estimate (3)'!G16</f>
-        <v>11.25</v>
-      </c>
-      <c r="E16" s="12">
-        <f>'Estimate (3)'!I16</f>
-        <v>404.28</v>
-      </c>
-      <c r="F16" s="12">
-        <f>D16*E16</f>
-        <v>4548.1499999999996</v>
-      </c>
-      <c r="G16" s="12">
-        <f>V!G20</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="H16" s="12">
-        <f>V!I16</f>
-        <v>404.28</v>
-      </c>
-      <c r="I16" s="12">
-        <f>G16*H16</f>
-        <v>1091.5559999999998</v>
-      </c>
-      <c r="J16" s="28">
-        <f>I16-F16</f>
-        <v>-3456.5940000000001</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
-        <f>'Estimate (3)'!A18</f>
-        <v>3</v>
-      </c>
-      <c r="B18" s="32" t="str">
-        <f>'Estimate (3)'!B18</f>
-        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>'Estimate (3)'!H20</f>
-        <v>m3</v>
-      </c>
-      <c r="D18" s="12">
-        <f>'Estimate (3)'!G20</f>
-        <v>3.09375</v>
-      </c>
-      <c r="E18" s="12">
-        <f>'Estimate (3)'!I20</f>
-        <v>4561.53</v>
-      </c>
-      <c r="F18" s="12">
-        <f>D18*E18</f>
-        <v>14112.233437499999</v>
-      </c>
-      <c r="G18" s="12">
-        <f>V!G20</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="H18" s="12">
-        <f>V!I20</f>
-        <v>4561.53</v>
-      </c>
-      <c r="I18" s="12">
-        <f>G18*H18</f>
-        <v>12316.130999999998</v>
-      </c>
-      <c r="J18" s="28">
-        <f>I18-F18</f>
-        <v>-1796.1024375000015</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="86" t="str">
-        <f>'Estimate (3)'!B21</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
-        <f>'Estimate (3)'!J21</f>
-        <v>1242.9685125000001</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12">
-        <f>V!J21</f>
-        <v>1084.77252</v>
-      </c>
-      <c r="J19" s="28">
-        <f>I19-F19</f>
-        <v>-158.1959925000001</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
-        <f>'Estimate (3)'!A23</f>
-        <v>4</v>
-      </c>
-      <c r="B21" s="32" t="str">
-        <f>'Estimate (3)'!B23</f>
-        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>'Estimate (3)'!H26</f>
-        <v>m3</v>
-      </c>
-      <c r="D21" s="12">
-        <f>'Estimate (3)'!G26</f>
-        <v>1.921875</v>
-      </c>
-      <c r="E21" s="12">
-        <f>'Estimate (3)'!I26</f>
-        <v>10634.5</v>
-      </c>
-      <c r="F21" s="12">
-        <f>D21*E21</f>
-        <v>20438.1796875</v>
-      </c>
-      <c r="G21" s="12">
-        <f>V!G26</f>
-        <v>1.6875</v>
-      </c>
-      <c r="H21" s="12">
-        <f>V!I26</f>
-        <v>10634.5</v>
-      </c>
-      <c r="I21" s="12">
-        <f>G21*H21</f>
-        <v>17945.71875</v>
-      </c>
-      <c r="J21" s="28">
-        <f>I21-F21</f>
-        <v>-2492.4609375</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="86" t="str">
-        <f>'Estimate (3)'!B27</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
-        <f>'Estimate (3)'!J27</f>
-        <v>2016.1158062500001</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
-        <f>V!J27</f>
-        <v>1770.2480250000003</v>
-      </c>
-      <c r="J22" s="28">
-        <f>I22-F22</f>
-        <v>-245.86778124999978</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
-        <f>'Estimate (3)'!A29</f>
-        <v>5</v>
-      </c>
-      <c r="B24" s="32" t="str">
-        <f>'Estimate (3)'!B29</f>
-        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <f>'Estimate (3)'!H31</f>
-        <v>m3</v>
-      </c>
-      <c r="D24" s="12">
-        <f>'Estimate (3)'!G31</f>
-        <v>38.671875</v>
-      </c>
-      <c r="E24" s="12">
-        <f>'Estimate (3)'!I31</f>
-        <v>9709.43</v>
-      </c>
-      <c r="F24" s="12">
-        <f>D24*E24</f>
-        <v>375481.86328125</v>
-      </c>
-      <c r="G24" s="12">
-        <f>V!G31</f>
-        <v>31.875</v>
-      </c>
-      <c r="H24" s="12">
-        <f>V!I31</f>
-        <v>9709.43</v>
-      </c>
-      <c r="I24" s="12">
-        <f>G24*H24</f>
-        <v>309488.08124999999</v>
-      </c>
-      <c r="J24" s="28">
-        <f>I24-F24</f>
-        <v>-65993.782031250012</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="86" t="str">
-        <f>'Estimate (3)'!B32</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12">
-        <f>'Estimate (3)'!J32</f>
-        <v>27240.259921875</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
-        <f>V!J32</f>
-        <v>22452.577874999999</v>
-      </c>
-      <c r="J25" s="28">
-        <f>I25-F25</f>
-        <v>-4787.6820468750011</v>
-      </c>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
-        <f>'Estimate (3)'!A34</f>
-        <v>6</v>
-      </c>
-      <c r="B27" s="31" t="str">
-        <f>'Estimate (3)'!B34</f>
-        <v>Information board (सुचना पाटि)</v>
-      </c>
-      <c r="C27" s="12" t="str">
-        <f>'Estimate (3)'!H34</f>
-        <v>no.</v>
-      </c>
-      <c r="D27" s="12">
-        <f>'Estimate (3)'!G34</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="12">
-        <f>'Estimate (3)'!I34</f>
-        <v>500</v>
-      </c>
-      <c r="F27" s="12">
-        <f>D27*E27</f>
-        <v>500</v>
-      </c>
-      <c r="G27" s="12">
-        <f>V!G34</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="12">
-        <f>V!I34</f>
-        <v>500</v>
-      </c>
-      <c r="I27" s="12">
-        <f>G27*H27</f>
-        <v>500</v>
-      </c>
-      <c r="J27" s="28">
-        <f>I27-F27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <f>SUM(F13:F27)</f>
-        <v>447610.12228750001</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7">
-        <f>SUM(I13:I27)</f>
-        <v>367655.87135750003</v>
-      </c>
-      <c r="J29" s="13">
-        <f>I29-F29</f>
-        <v>-79954.25092999998</v>
-      </c>
-      <c r="K29" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="138" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="38">
-        <f>D30</f>
-        <v>15</v>
-      </c>
-      <c r="E10" s="38">
-        <f>F30/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="F10" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="39">
-        <f>PRODUCT(C10:F10)</f>
-        <v>14.0625</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23">
-        <f>SUM(G10:G10)</f>
-        <v>14.0625</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J11" s="41">
-        <f>G11*I11</f>
-        <v>908.85937499999989</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="41">
-        <f>0.13*G11*19284/360</f>
-        <v>97.926562500000003</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <v>2</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="38">
-        <f>D19</f>
-        <v>15</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="G15" s="39">
-        <f>PRODUCT(C15:F15)</f>
-        <v>11.25</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23">
-        <f>SUM(G15:G15)</f>
-        <v>11.25</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="23">
-        <v>404.28</v>
-      </c>
-      <c r="J16" s="41">
-        <f>G16*I16</f>
-        <v>4548.1499999999996</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:15" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
-        <f>D24</f>
-        <v>15</v>
-      </c>
-      <c r="E19" s="38">
-        <f>E24</f>
-        <v>1.2</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="39">
-        <f>PRODUCT(C19:F19)</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="33">
-        <f>SUM(G19:G19)</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="33">
-        <v>4561.53</v>
-      </c>
-      <c r="J20" s="44">
-        <f>G20*I20</f>
-        <v>12316.130999999998</v>
-      </c>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="45">
-        <f>0.13*G20*(15452.6/5)</f>
-        <v>1084.77252</v>
-      </c>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:15" ht="69" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>4</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="21"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="36">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38">
-        <f>D30</f>
-        <v>15</v>
-      </c>
-      <c r="E24" s="38">
-        <v>1.2</v>
-      </c>
-      <c r="F24" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G24" s="39">
-        <f>PRODUCT(C24:F24)</f>
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
-        <f>D24</f>
-        <v>15</v>
-      </c>
-      <c r="E25" s="38">
-        <v>0.45</v>
-      </c>
-      <c r="F25" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="G25" s="39">
-        <f>PRODUCT(C25:F25)</f>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="33">
-        <f>SUM(G24:G25)</f>
-        <v>1.6875</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="33">
-        <v>10634.5</v>
-      </c>
-      <c r="J26" s="44">
-        <f>G26*I26</f>
-        <v>17945.71875</v>
-      </c>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="45">
-        <f>0.13*G26*((114907.3+6135.3)/15)</f>
-        <v>1770.2480250000003</v>
-      </c>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="63">
-        <v>5</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="36">
-        <v>1</v>
-      </c>
-      <c r="D30" s="38">
-        <v>15</v>
-      </c>
-      <c r="E30" s="38">
-        <f>((F30/2+0.45)/2)</f>
-        <v>0.85</v>
-      </c>
-      <c r="F30" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="G30" s="39">
-        <f>PRODUCT(C30:F30)</f>
-        <v>31.875</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="33">
-        <f>SUM(G30:G30)</f>
-        <v>31.875</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="33">
-        <v>9709.43</v>
-      </c>
-      <c r="J31" s="44">
-        <f>G31*I31</f>
-        <v>309488.08124999999</v>
-      </c>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="45">
-        <f>0.13*G31*((27092.1)/5)</f>
-        <v>22452.577874999999</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="M32">
-        <f>8.5/3.281</f>
-        <v>2.5906735751295336</v>
-      </c>
-      <c r="N32">
-        <f>8.5-0.17</f>
-        <v>8.33</v>
-      </c>
-      <c r="O32">
-        <f>8.33/3.281</f>
-        <v>2.5388601036269427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>6</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="34">
-        <f t="shared" ref="G34" si="0">PRODUCT(C34:F34)</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="23">
-        <v>500</v>
-      </c>
-      <c r="J34" s="34">
-        <f>G34*I34</f>
-        <v>500</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41">
-        <f>SUM(J10:J34)</f>
-        <v>371112.46535750001</v>
-      </c>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="57"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="78">
-        <f>J36</f>
-        <v>371112.46535750001</v>
-      </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="39">
-        <v>100</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="81">
-        <v>400000</v>
-      </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="81">
-        <f>C39-C42-C43</f>
-        <v>380000</v>
-      </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="39">
-        <f>C40/C38*100</f>
-        <v>102.39483592499067</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="78">
-        <f>C38-C40</f>
-        <v>-8887.534642499988</v>
-      </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="39">
-        <f>100-E40</f>
-        <v>-2.394835924990673</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="49"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="78">
-        <f>C39*0.03</f>
-        <v>12000</v>
-      </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="39">
-        <v>3</v>
-      </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="49"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="78">
-        <f>C39*0.02</f>
-        <v>8000</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="39">
-        <v>2</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="49"/>
-    </row>
-    <row r="44" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-    </row>
-    <row r="45" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/ofc/estimates/sana gaun dhal byabasthapan/V-sanagaun dhal byabasthapan.xlsx
+++ b/ofc/estimates/sana gaun dhal byabasthapan/V-sanagaun dhal byabasthapan.xlsx
@@ -41,7 +41,7 @@
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Estimate (3)'!$A$1:$K$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$1:$K$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$1:$K$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Estimate (3)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Total Valuated</t>
+  </si>
+  <si>
+    <t>-for drain</t>
+  </si>
+  <si>
+    <t>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -559,24 +568,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,6 +578,42 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,24 +627,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,33 +768,33 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="33">
           <cell r="B33" t="str">
             <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1257,116 +1266,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
       <c r="O6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2116,11 +2125,11 @@
       <c r="B38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="66">
         <f>J36</f>
         <v>447610.12228750001</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="39">
         <v>100</v>
       </c>
@@ -2136,10 +2145,10 @@
       <c r="B39" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="69">
         <v>400000</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="39"/>
       <c r="F39" s="49"/>
       <c r="G39" s="48"/>
@@ -2153,11 +2162,11 @@
       <c r="B40" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="69">
         <f>C39-C42-C43</f>
         <v>380000</v>
       </c>
-      <c r="D40" s="75"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="39">
         <f>C40/C38*100</f>
         <v>84.895309797289613</v>
@@ -2174,11 +2183,11 @@
       <c r="B41" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="66">
         <f>C38-C40</f>
         <v>67610.122287500009</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="39">
         <f>100-E40</f>
         <v>15.104690202710387</v>
@@ -2195,11 +2204,11 @@
       <c r="B42" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="66">
         <f>C39*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D42" s="72"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="39">
         <v>3</v>
       </c>
@@ -2215,11 +2224,11 @@
       <c r="B43" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="66">
         <f>C39*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="39">
         <v>2</v>
       </c>
@@ -2247,1732 +2256,6 @@
     <row r="46" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="76">
-        <f>F29</f>
-        <v>447610.12228750001</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="76">
-        <f>I29</f>
-        <v>370362.78828660626</v>
-      </c>
-      <c r="K6" s="77"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="I7" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="str">
-        <f>'Estimate (3)'!A6:F6</f>
-        <v xml:space="preserve">Project:- सानागाउँ ढल व्यबस्थापन </v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="I8" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="str">
-        <f>'Estimate (3)'!A7:F7</f>
-        <v>Location:- Shankharapur Municipality 9</v>
-      </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="I9" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
-        <f>'Estimate (3)'!A9</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="32" t="str">
-        <f>'Estimate (3)'!B9</f>
-        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer. (खन्ने पुर्ने कार्य)</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>'Estimate (3)'!H11</f>
-        <v>m3</v>
-      </c>
-      <c r="D13" s="12">
-        <f>'Estimate (3)'!G11</f>
-        <v>28.359375</v>
-      </c>
-      <c r="E13" s="12">
-        <f>'Estimate (3)'!I11</f>
-        <v>64.63</v>
-      </c>
-      <c r="F13" s="12">
-        <f>D13*E13</f>
-        <v>1832.86640625</v>
-      </c>
-      <c r="G13" s="12">
-        <f>V!G11</f>
-        <v>9.375</v>
-      </c>
-      <c r="H13" s="12">
-        <f>V!I11</f>
-        <v>64.63</v>
-      </c>
-      <c r="I13" s="12">
-        <f>G13*H13</f>
-        <v>605.90625</v>
-      </c>
-      <c r="J13" s="28">
-        <f>I13-F13</f>
-        <v>-1226.96015625</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="65" t="str">
-        <f>'Estimate (3)'!B12</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <f>'Estimate (3)'!J12</f>
-        <v>197.48523437500003</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
-        <f>V!J12</f>
-        <v>65.284374999999997</v>
-      </c>
-      <c r="J14" s="28">
-        <f>I14-F14</f>
-        <v>-132.20085937500005</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
-        <f>'Estimate (3)'!A14</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="str">
-        <f>'Estimate (3)'!B14</f>
-        <v>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</v>
-      </c>
-      <c r="C16" s="12" t="str">
-        <f>'Estimate (3)'!H16</f>
-        <v>m3</v>
-      </c>
-      <c r="D16" s="12">
-        <f>'Estimate (3)'!G16</f>
-        <v>11.25</v>
-      </c>
-      <c r="E16" s="12">
-        <f>'Estimate (3)'!I16</f>
-        <v>404.28</v>
-      </c>
-      <c r="F16" s="12">
-        <f>D16*E16</f>
-        <v>4548.1499999999996</v>
-      </c>
-      <c r="G16" s="12">
-        <f>V!G20</f>
-        <v>2.9714263943919539</v>
-      </c>
-      <c r="H16" s="12">
-        <f>V!I16</f>
-        <v>404.28</v>
-      </c>
-      <c r="I16" s="12">
-        <f>G16*H16</f>
-        <v>1201.2882627247791</v>
-      </c>
-      <c r="J16" s="28">
-        <f>I16-F16</f>
-        <v>-3346.8617372752205</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
-        <f>'Estimate (3)'!A18</f>
-        <v>3</v>
-      </c>
-      <c r="B18" s="32" t="str">
-        <f>'Estimate (3)'!B18</f>
-        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>'Estimate (3)'!H20</f>
-        <v>m3</v>
-      </c>
-      <c r="D18" s="12">
-        <f>'Estimate (3)'!G20</f>
-        <v>3.09375</v>
-      </c>
-      <c r="E18" s="12">
-        <f>'Estimate (3)'!I20</f>
-        <v>4561.53</v>
-      </c>
-      <c r="F18" s="12">
-        <f>D18*E18</f>
-        <v>14112.233437499999</v>
-      </c>
-      <c r="G18" s="12">
-        <f>V!G20</f>
-        <v>2.9714263943919539</v>
-      </c>
-      <c r="H18" s="12">
-        <f>V!I20</f>
-        <v>4561.53</v>
-      </c>
-      <c r="I18" s="12">
-        <f>G18*H18</f>
-        <v>13554.250640810729</v>
-      </c>
-      <c r="J18" s="28">
-        <f>I18-F18</f>
-        <v>-557.98279668926989</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="65" t="str">
-        <f>'Estimate (3)'!B21</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
-        <f>'Estimate (3)'!J21</f>
-        <v>1242.9685125000001</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12">
-        <f>V!J21</f>
-        <v>1193.8228510515087</v>
-      </c>
-      <c r="J19" s="28">
-        <f>I19-F19</f>
-        <v>-49.14566144849141</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
-        <f>'Estimate (3)'!A23</f>
-        <v>4</v>
-      </c>
-      <c r="B21" s="32" t="str">
-        <f>'Estimate (3)'!B23</f>
-        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>'Estimate (3)'!H26</f>
-        <v>m3</v>
-      </c>
-      <c r="D21" s="12">
-        <f>'Estimate (3)'!G26</f>
-        <v>1.921875</v>
-      </c>
-      <c r="E21" s="12">
-        <f>'Estimate (3)'!I26</f>
-        <v>10634.5</v>
-      </c>
-      <c r="F21" s="12">
-        <f>D21*E21</f>
-        <v>20438.1796875</v>
-      </c>
-      <c r="G21" s="12">
-        <f>V!G26</f>
-        <v>1.8232131971959769</v>
-      </c>
-      <c r="H21" s="12">
-        <f>V!I26</f>
-        <v>10634.5</v>
-      </c>
-      <c r="I21" s="12">
-        <f>G21*H21</f>
-        <v>19388.960745580614</v>
-      </c>
-      <c r="J21" s="28">
-        <f>I21-F21</f>
-        <v>-1049.2189419193855</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="65" t="str">
-        <f>'Estimate (3)'!B27</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
-        <f>'Estimate (3)'!J27</f>
-        <v>2016.1158062500001</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
-        <f>V!J27</f>
-        <v>1912.616036438586</v>
-      </c>
-      <c r="J22" s="28">
-        <f>I22-F22</f>
-        <v>-103.49976981141413</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
-        <f>'Estimate (3)'!A29</f>
-        <v>5</v>
-      </c>
-      <c r="B24" s="32" t="str">
-        <f>'Estimate (3)'!B29</f>
-        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <f>'Estimate (3)'!H31</f>
-        <v>m3</v>
-      </c>
-      <c r="D24" s="12">
-        <f>'Estimate (3)'!G31</f>
-        <v>38.671875</v>
-      </c>
-      <c r="E24" s="12">
-        <f>'Estimate (3)'!I31</f>
-        <v>9709.43</v>
-      </c>
-      <c r="F24" s="12">
-        <f>D24*E24</f>
-        <v>375481.86328125</v>
-      </c>
-      <c r="G24" s="12">
-        <f>V!G31</f>
-        <v>31.875</v>
-      </c>
-      <c r="H24" s="12">
-        <f>V!I31</f>
-        <v>9709.43</v>
-      </c>
-      <c r="I24" s="12">
-        <f>G24*H24</f>
-        <v>309488.08124999999</v>
-      </c>
-      <c r="J24" s="28">
-        <f>I24-F24</f>
-        <v>-65993.782031250012</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="65" t="str">
-        <f>'Estimate (3)'!B32</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12">
-        <f>'Estimate (3)'!J32</f>
-        <v>27240.259921875</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
-        <f>V!J32</f>
-        <v>22452.577874999999</v>
-      </c>
-      <c r="J25" s="28">
-        <f>I25-F25</f>
-        <v>-4787.6820468750011</v>
-      </c>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
-        <f>'Estimate (3)'!A34</f>
-        <v>6</v>
-      </c>
-      <c r="B27" s="31" t="str">
-        <f>'Estimate (3)'!B34</f>
-        <v>Information board (सुचना पाटि)</v>
-      </c>
-      <c r="C27" s="12" t="str">
-        <f>'Estimate (3)'!H34</f>
-        <v>no.</v>
-      </c>
-      <c r="D27" s="12">
-        <f>'Estimate (3)'!G34</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="12">
-        <f>'Estimate (3)'!I34</f>
-        <v>500</v>
-      </c>
-      <c r="F27" s="12">
-        <f>D27*E27</f>
-        <v>500</v>
-      </c>
-      <c r="G27" s="12">
-        <f>V!G34</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="12">
-        <f>V!I34</f>
-        <v>500</v>
-      </c>
-      <c r="I27" s="12">
-        <f>G27*H27</f>
-        <v>500</v>
-      </c>
-      <c r="J27" s="28">
-        <f>I27-F27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <f>SUM(F13:F27)</f>
-        <v>447610.12228750001</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7">
-        <f>SUM(I13:I27)</f>
-        <v>370362.78828660626</v>
-      </c>
-      <c r="J29" s="13">
-        <f>I29-F29</f>
-        <v>-77247.334000893752</v>
-      </c>
-      <c r="K29" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="138" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="38">
-        <f>D30</f>
-        <v>15</v>
-      </c>
-      <c r="E10" s="38">
-        <f>F30/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="F10" s="38">
-        <v>1</v>
-      </c>
-      <c r="G10" s="39">
-        <f>PRODUCT(C10:F10)</f>
-        <v>9.375</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23">
-        <f>SUM(G10:G10)</f>
-        <v>9.375</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J11" s="41">
-        <f>G11*I11</f>
-        <v>605.90625</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="41">
-        <f>0.13*G11*19284/360</f>
-        <v>65.284374999999997</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <v>2</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="38">
-        <f>D19</f>
-        <v>15</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="G15" s="39">
-        <f>PRODUCT(C15:F15)</f>
-        <v>11.25</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23">
-        <f>SUM(G15:G15)</f>
-        <v>11.25</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="23">
-        <v>404.28</v>
-      </c>
-      <c r="J16" s="41">
-        <f>G16*I16</f>
-        <v>4548.1499999999996</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
-        <f>D24</f>
-        <v>15</v>
-      </c>
-      <c r="E19" s="38">
-        <f>E24</f>
-        <v>1.3206339530630906</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="39">
-        <f>PRODUCT(C19:F19)</f>
-        <v>2.9714263943919539</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="33">
-        <f>SUM(G19:G19)</f>
-        <v>2.9714263943919539</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="33">
-        <v>4561.53</v>
-      </c>
-      <c r="J20" s="44">
-        <f>G20*I20</f>
-        <v>13554.250640810729</v>
-      </c>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="45">
-        <f>0.13*G20*(15452.6/5)</f>
-        <v>1193.8228510515087</v>
-      </c>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>4</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="21"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="36">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38">
-        <f>D30</f>
-        <v>15</v>
-      </c>
-      <c r="E24" s="38">
-        <f>4.333/3.281</f>
-        <v>1.3206339530630906</v>
-      </c>
-      <c r="F24" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G24" s="39">
-        <f>PRODUCT(C24:F24)</f>
-        <v>1.4857131971959769</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
-        <f>D24</f>
-        <v>15</v>
-      </c>
-      <c r="E25" s="38">
-        <v>0.45</v>
-      </c>
-      <c r="F25" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="G25" s="39">
-        <f>PRODUCT(C25:F25)</f>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="33">
-        <f>SUM(G24:G25)</f>
-        <v>1.8232131971959769</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="33">
-        <v>10634.5</v>
-      </c>
-      <c r="J26" s="44">
-        <f>G26*I26</f>
-        <v>19388.960745580614</v>
-      </c>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="45">
-        <f>0.13*G26*((114907.3+6135.3)/15)</f>
-        <v>1912.616036438586</v>
-      </c>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="63">
-        <v>5</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="36">
-        <v>1</v>
-      </c>
-      <c r="D30" s="38">
-        <v>15</v>
-      </c>
-      <c r="E30" s="38">
-        <f>((F30/2+0.45)/2)</f>
-        <v>0.85</v>
-      </c>
-      <c r="F30" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="G30" s="39">
-        <f>PRODUCT(C30:F30)</f>
-        <v>31.875</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="33">
-        <f>SUM(G30:G30)</f>
-        <v>31.875</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="33">
-        <v>9709.43</v>
-      </c>
-      <c r="J31" s="44">
-        <f>G31*I31</f>
-        <v>309488.08124999999</v>
-      </c>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="45">
-        <f>0.13*G31*((27092.1)/5)</f>
-        <v>22452.577874999999</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="M32">
-        <f>8.5/3.281</f>
-        <v>2.5906735751295336</v>
-      </c>
-      <c r="N32">
-        <f>8.5-0.17</f>
-        <v>8.33</v>
-      </c>
-      <c r="O32">
-        <f>8.33/3.281</f>
-        <v>2.5388601036269427</v>
-      </c>
-      <c r="P32">
-        <f>8.333/3.281</f>
-        <v>2.5397744590064004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>6</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="34">
-        <f t="shared" ref="G34" si="0">PRODUCT(C34:F34)</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="23">
-        <v>500</v>
-      </c>
-      <c r="J34" s="34">
-        <f>G34*I34</f>
-        <v>500</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41">
-        <f>SUM(J10:J34)</f>
-        <v>373709.65002388146</v>
-      </c>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="57"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="72">
-        <f>J36</f>
-        <v>373709.65002388146</v>
-      </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="39">
-        <v>100</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="75">
-        <v>400000</v>
-      </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="75">
-        <f>C39-C42-C43</f>
-        <v>380000</v>
-      </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="39">
-        <f>C40/C38*100</f>
-        <v>101.68321850284481</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="72">
-        <f>C38-C40</f>
-        <v>-6290.3499761185376</v>
-      </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="39">
-        <f>100-E40</f>
-        <v>-1.6832185028448094</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="49"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="72">
-        <f>C39*0.03</f>
-        <v>12000</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="39">
-        <v>3</v>
-      </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="49"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="72">
-        <f>C39*0.02</f>
-        <v>8000</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="39">
-        <v>2</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="49"/>
-    </row>
-    <row r="44" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-    </row>
-    <row r="45" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4049,4 +2332,1819 @@
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="82">
+        <f>F29</f>
+        <v>447610.12228750001</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="82">
+        <f>I29</f>
+        <v>370362.78828660626</v>
+      </c>
+      <c r="K6" s="83"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="I7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="str">
+        <f>'Estimate (3)'!A6:F6</f>
+        <v xml:space="preserve">Project:- सानागाउँ ढल व्यबस्थापन </v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="I8" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="70" t="str">
+        <f>'Estimate (3)'!A7:F7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="I9" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <f>'Estimate (3)'!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>'Estimate (3)'!B9</f>
+        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer. (खन्ने पुर्ने कार्य)</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>'Estimate (3)'!H11</f>
+        <v>m3</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'Estimate (3)'!G11</f>
+        <v>28.359375</v>
+      </c>
+      <c r="E13" s="12">
+        <f>'Estimate (3)'!I11</f>
+        <v>64.63</v>
+      </c>
+      <c r="F13" s="12">
+        <f>D13*E13</f>
+        <v>1832.86640625</v>
+      </c>
+      <c r="G13" s="12">
+        <f>V!G11</f>
+        <v>9.375</v>
+      </c>
+      <c r="H13" s="12">
+        <f>V!I11</f>
+        <v>64.63</v>
+      </c>
+      <c r="I13" s="12">
+        <f>G13*H13</f>
+        <v>605.90625</v>
+      </c>
+      <c r="J13" s="28">
+        <f>I13-F13</f>
+        <v>-1226.96015625</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="65" t="str">
+        <f>'Estimate (3)'!B12</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <f>'Estimate (3)'!J12</f>
+        <v>197.48523437500003</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <f>V!J12</f>
+        <v>65.284374999999997</v>
+      </c>
+      <c r="J14" s="28">
+        <f>I14-F14</f>
+        <v>-132.20085937500005</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <f>'Estimate (3)'!A14</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="str">
+        <f>'Estimate (3)'!B14</f>
+        <v>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>'Estimate (3)'!H16</f>
+        <v>m3</v>
+      </c>
+      <c r="D16" s="12">
+        <f>'Estimate (3)'!G16</f>
+        <v>11.25</v>
+      </c>
+      <c r="E16" s="12">
+        <f>'Estimate (3)'!I16</f>
+        <v>404.28</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>4548.1499999999996</v>
+      </c>
+      <c r="G16" s="12">
+        <f>V!G24</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H16" s="12">
+        <f>V!I20</f>
+        <v>404.28</v>
+      </c>
+      <c r="I16" s="12">
+        <f>G16*H16</f>
+        <v>1201.2882627247791</v>
+      </c>
+      <c r="J16" s="28">
+        <f>I16-F16</f>
+        <v>-3346.8617372752205</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <f>'Estimate (3)'!A18</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="32" t="str">
+        <f>'Estimate (3)'!B18</f>
+        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f>'Estimate (3)'!H20</f>
+        <v>m3</v>
+      </c>
+      <c r="D18" s="12">
+        <f>'Estimate (3)'!G20</f>
+        <v>3.09375</v>
+      </c>
+      <c r="E18" s="12">
+        <f>'Estimate (3)'!I20</f>
+        <v>4561.53</v>
+      </c>
+      <c r="F18" s="12">
+        <f>D18*E18</f>
+        <v>14112.233437499999</v>
+      </c>
+      <c r="G18" s="12">
+        <f>V!G24</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H18" s="12">
+        <f>V!I24</f>
+        <v>4561.53</v>
+      </c>
+      <c r="I18" s="12">
+        <f>G18*H18</f>
+        <v>13554.250640810729</v>
+      </c>
+      <c r="J18" s="28">
+        <f>I18-F18</f>
+        <v>-557.98279668926989</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="65" t="str">
+        <f>'Estimate (3)'!B21</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <f>'Estimate (3)'!J21</f>
+        <v>1242.9685125000001</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <f>V!J25</f>
+        <v>1193.8228510515087</v>
+      </c>
+      <c r="J19" s="28">
+        <f>I19-F19</f>
+        <v>-49.14566144849141</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <f>'Estimate (3)'!A23</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="32" t="str">
+        <f>'Estimate (3)'!B23</f>
+        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>'Estimate (3)'!H26</f>
+        <v>m3</v>
+      </c>
+      <c r="D21" s="12">
+        <f>'Estimate (3)'!G26</f>
+        <v>1.921875</v>
+      </c>
+      <c r="E21" s="12">
+        <f>'Estimate (3)'!I26</f>
+        <v>10634.5</v>
+      </c>
+      <c r="F21" s="12">
+        <f>D21*E21</f>
+        <v>20438.1796875</v>
+      </c>
+      <c r="G21" s="12">
+        <f>V!G30</f>
+        <v>1.8232131971959769</v>
+      </c>
+      <c r="H21" s="12">
+        <f>V!I30</f>
+        <v>10634.5</v>
+      </c>
+      <c r="I21" s="12">
+        <f>G21*H21</f>
+        <v>19388.960745580614</v>
+      </c>
+      <c r="J21" s="28">
+        <f>I21-F21</f>
+        <v>-1049.2189419193855</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="65" t="str">
+        <f>'Estimate (3)'!B27</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <f>'Estimate (3)'!J27</f>
+        <v>2016.1158062500001</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <f>V!J31</f>
+        <v>1912.616036438586</v>
+      </c>
+      <c r="J22" s="28">
+        <f>I22-F22</f>
+        <v>-103.49976981141413</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <f>'Estimate (3)'!A29</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="32" t="str">
+        <f>'Estimate (3)'!B29</f>
+        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>'Estimate (3)'!H31</f>
+        <v>m3</v>
+      </c>
+      <c r="D24" s="12">
+        <f>'Estimate (3)'!G31</f>
+        <v>38.671875</v>
+      </c>
+      <c r="E24" s="12">
+        <f>'Estimate (3)'!I31</f>
+        <v>9709.43</v>
+      </c>
+      <c r="F24" s="12">
+        <f>D24*E24</f>
+        <v>375481.86328125</v>
+      </c>
+      <c r="G24" s="12">
+        <f>V!G35</f>
+        <v>31.875</v>
+      </c>
+      <c r="H24" s="12">
+        <f>V!I35</f>
+        <v>9709.43</v>
+      </c>
+      <c r="I24" s="12">
+        <f>G24*H24</f>
+        <v>309488.08124999999</v>
+      </c>
+      <c r="J24" s="28">
+        <f>I24-F24</f>
+        <v>-65993.782031250012</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="65" t="str">
+        <f>'Estimate (3)'!B32</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <f>'Estimate (3)'!J32</f>
+        <v>27240.259921875</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
+        <f>V!J36</f>
+        <v>22452.577874999999</v>
+      </c>
+      <c r="J25" s="28">
+        <f>I25-F25</f>
+        <v>-4787.6820468750011</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
+        <f>'Estimate (3)'!A34</f>
+        <v>6</v>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>'Estimate (3)'!B34</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <f>'Estimate (3)'!H34</f>
+        <v>no.</v>
+      </c>
+      <c r="D27" s="12">
+        <f>'Estimate (3)'!G34</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <f>'Estimate (3)'!I34</f>
+        <v>500</v>
+      </c>
+      <c r="F27" s="12">
+        <f>D27*E27</f>
+        <v>500</v>
+      </c>
+      <c r="G27" s="12">
+        <f>V!G38</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <f>V!I38</f>
+        <v>500</v>
+      </c>
+      <c r="I27" s="12">
+        <f>G27*H27</f>
+        <v>500</v>
+      </c>
+      <c r="J27" s="28">
+        <f>I27-F27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <f>SUM(F13:F27)</f>
+        <v>447610.12228750001</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <f>SUM(I13:I27)</f>
+        <v>370362.78828660626</v>
+      </c>
+      <c r="J29" s="13">
+        <f>I29-F29</f>
+        <v>-77247.334000893752</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="38">
+        <f>D34</f>
+        <v>15</v>
+      </c>
+      <c r="E10" s="38">
+        <f>F34/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39">
+        <f>PRODUCT(C10:F10)</f>
+        <v>9.375</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23">
+        <f>SUM(G10:G10)</f>
+        <v>9.375</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J11" s="41">
+        <f>G11*I11</f>
+        <v>605.90625</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="41">
+        <f>0.13*G11*19284/360</f>
+        <v>65.284374999999997</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>1</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="38">
+        <v>50</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="39">
+        <f>PRODUCT(C15:F15)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23">
+        <f>SUM(G15:G15)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="23">
+        <v>736.88</v>
+      </c>
+      <c r="J16" s="41">
+        <f>G16*I16</f>
+        <v>5526.6</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="38">
+        <f>D23</f>
+        <v>15</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="39">
+        <f>PRODUCT(C19:F19)</f>
+        <v>11.25</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23">
+        <f>SUM(G19:G19)</f>
+        <v>11.25</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="23">
+        <v>404.28</v>
+      </c>
+      <c r="J20" s="41">
+        <f>G20*I20</f>
+        <v>4548.1499999999996</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>3</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="21"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="36">
+        <v>1</v>
+      </c>
+      <c r="D23" s="38">
+        <f>D28</f>
+        <v>15</v>
+      </c>
+      <c r="E23" s="38">
+        <f>E28</f>
+        <v>1.3206339530630906</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="39">
+        <f>PRODUCT(C23:F23)</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="33">
+        <f>SUM(G23:G23)</f>
+        <v>2.9714263943919539</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="33">
+        <v>4561.53</v>
+      </c>
+      <c r="J24" s="44">
+        <f>G24*I24</f>
+        <v>13554.250640810729</v>
+      </c>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45">
+        <f>0.13*G24*(15452.6/5)</f>
+        <v>1193.8228510515087</v>
+      </c>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>4</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
+        <f>D34</f>
+        <v>15</v>
+      </c>
+      <c r="E28" s="38">
+        <f>4.333/3.281</f>
+        <v>1.3206339530630906</v>
+      </c>
+      <c r="F28" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G28" s="39">
+        <f>PRODUCT(C28:F28)</f>
+        <v>1.4857131971959769</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36">
+        <v>1</v>
+      </c>
+      <c r="D29" s="38">
+        <f>D28</f>
+        <v>15</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="39">
+        <f>PRODUCT(C29:F29)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="33">
+        <f>SUM(G28:G29)</f>
+        <v>1.8232131971959769</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J30" s="44">
+        <f>G30*I30</f>
+        <v>19388.960745580614</v>
+      </c>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="45">
+        <f>0.13*G30*((114907.3+6135.3)/15)</f>
+        <v>1912.616036438586</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="63">
+        <v>5</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1</v>
+      </c>
+      <c r="D34" s="38">
+        <v>15</v>
+      </c>
+      <c r="E34" s="38">
+        <f>((F34/2+0.45)/2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="F34" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="G34" s="39">
+        <f>PRODUCT(C34:F34)</f>
+        <v>31.875</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="33">
+        <f>SUM(G34:G34)</f>
+        <v>31.875</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J35" s="44">
+        <f>G35*I35</f>
+        <v>309488.08124999999</v>
+      </c>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="45">
+        <f>0.13*G35*((27092.1)/5)</f>
+        <v>22452.577874999999</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="M36">
+        <f>8.5/3.281</f>
+        <v>2.5906735751295336</v>
+      </c>
+      <c r="N36">
+        <f>8.5-0.17</f>
+        <v>8.33</v>
+      </c>
+      <c r="O36">
+        <f>8.33/3.281</f>
+        <v>2.5388601036269427</v>
+      </c>
+      <c r="P36">
+        <f>8.333/3.281</f>
+        <v>2.5397744590064004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>6</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="34">
+        <f t="shared" ref="G38" si="0">PRODUCT(C38:F38)</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="23">
+        <v>500</v>
+      </c>
+      <c r="J38" s="34">
+        <f>G38*I38</f>
+        <v>500</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41">
+        <f>SUM(J10:J38)</f>
+        <v>379236.25002388144</v>
+      </c>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="57"/>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="66">
+        <f>J40</f>
+        <v>379236.25002388144</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="39">
+        <v>100</v>
+      </c>
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="69">
+        <v>400000</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="56"/>
+      <c r="B44" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="69">
+        <f>C43-C46-C47</f>
+        <v>380000</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="39">
+        <f>C44/C42*100</f>
+        <v>100.20139160643807</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="49"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="56"/>
+      <c r="B45" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="66">
+        <f>C42-C44</f>
+        <v>-763.74997611856088</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="39">
+        <f>100-E44</f>
+        <v>-0.2013916064380652</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="49"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="56"/>
+      <c r="B46" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="66">
+        <f>C43*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="39">
+        <v>3</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="49"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="56"/>
+      <c r="B47" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="66">
+        <f>C43*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D47" s="66"/>
+      <c r="E47" s="39">
+        <v>2</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="49"/>
+    </row>
+    <row r="48" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+    </row>
+    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>